--- a/IBM Qiskit Cert Exam C1000-112 Cheatsheet.xlsx
+++ b/IBM Qiskit Cert Exam C1000-112 Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabhakar\Documents\MyFiles\Learning\quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C02BA4-1276-4E0D-82E4-844B76FF3687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9998AAD-2013-4029-8940-D2631251532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" tabRatio="486" xr2:uid="{E64494E9-292C-426B-B6A0-7723F67988B7}"/>
+    <workbookView xWindow="4044" yWindow="2964" windowWidth="14400" windowHeight="10254" tabRatio="486" xr2:uid="{E64494E9-292C-426B-B6A0-7723F67988B7}"/>
   </bookViews>
   <sheets>
     <sheet name="QiskitCertCS" sheetId="3" r:id="rId1"/>
@@ -599,9 +599,6 @@
     <t>Cheatsheet for IBM Certified Associate Developer - Quantum Computation using Qiskit v0.2X - Exam C1000-112</t>
   </si>
   <si>
-    <t>Useful Links</t>
-  </si>
-  <si>
     <t>Good slides collection of sample questions with answers</t>
   </si>
   <si>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>IBM Certification main page</t>
+  </si>
+  <si>
+    <t>Useful Links and Sources used for this cheatsheet</t>
   </si>
 </sst>
 </file>
@@ -769,12 +769,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -784,12 +778,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1111,8 +1111,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1132,19 +1132,19 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2"/>
       <c r="B2"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D2"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
@@ -1153,7 +1153,7 @@
       <c r="B4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
         <v>63</v>
       </c>
@@ -1167,14 +1167,14 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="D6" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
@@ -1236,7 +1236,7 @@
       <c r="A11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="1"/>
@@ -1249,10 +1249,10 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
@@ -1357,14 +1357,14 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="12"/>
+      <c r="D21" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
@@ -1424,21 +1424,21 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="D27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="D27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1507,10 +1507,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="12"/>
       <c r="D33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1577,10 +1577,10 @@
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="D38" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
@@ -1633,20 +1633,20 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="D44" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="D44" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
@@ -1655,10 +1655,10 @@
       <c r="B45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="12"/>
+      <c r="D45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
@@ -1667,10 +1667,10 @@
       <c r="B46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="12"/>
+      <c r="D46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
@@ -1679,51 +1679,56 @@
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="12"/>
+      <c r="D47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D50" s="12" t="s">
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D51" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D52" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D53" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="12"/>
+      <c r="E53" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -1740,11 +1745,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{5E7AA2EC-1908-445B-9B51-4D587D9C51C6}"/>
